--- a/GFURs.xlsx
+++ b/GFURs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fraunhofer.sharepoint.com/sites/TwinEU/Freigegebene Dokumente/WP3 Open Architecture for DT/T3.2/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1483" documentId="13_ncr:1_{40FEA7CE-8510-411A-985B-C3F18811623C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22ABAB5F-E5CB-4A3A-B72C-5DA999265BC8}"/>
+  <xr:revisionPtr revIDLastSave="1513" documentId="13_ncr:1_{40FEA7CE-8510-411A-985B-C3F18811623C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CF13125-DAF8-421C-AB43-45856691105C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{79F53164-AACA-4BEE-B2C8-7845BDDA5890}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{79F53164-AACA-4BEE-B2C8-7845BDDA5890}"/>
   </bookViews>
   <sheets>
     <sheet name="GFURs 6" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="472">
   <si>
     <t>Name GSUC</t>
   </si>
@@ -301,32 +301,6 @@
   </si>
   <si>
     <t>Full IoT Edge-Network Control</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The system will not provide detailed edge device control </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>beyond possible basic IoT data integration in the initial deployment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <t>Example of WON'T in MoSCoW prioritazation</t>
@@ -1491,14 +1465,6 @@
     <t xml:space="preserve">OneNet_FUR_15 </t>
   </si>
   <si>
-    <t>The Data Space connector must be able to send metadata of a data source to 
-one or more Brokers</t>
-  </si>
-  <si>
-    <t>Once the connector is configured it is able to connect the 
-Brokers for starting data exchange. The connector is able to provide and/or search metadata as well as discover for new data sources and participants.</t>
-  </si>
-  <si>
     <t xml:space="preserve">OneNet_FUR_16 </t>
   </si>
   <si>
@@ -1506,9 +1472,6 @@
   </si>
   <si>
     <t xml:space="preserve">OneNet_FUR_17 </t>
-  </si>
-  <si>
-    <t>The Data Space Connector must be able to search for metadata connecting to a Broker</t>
   </si>
   <si>
     <t>OneNet_FUR_18</t>
@@ -1964,35 +1927,6 @@
 service orchestration</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The TwinEU Orchestration Workbench aims to support the data 
-orchestration for the evaluation of the performance and scalability of the AI, IoT and Big Data cross-platform services for market and grid operations. The TwinEU Orchestration Workbench allows to integrate data coming from the TwinEU middleware and implement a data pipeline orchestration. It also should include: Job Scheduling App/Service registry and discovery Error/Retries management SLAs tracking, alerting and notification. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The system should provide a centralized AI &amp; Big Data marketplace for 
-discovering, integrating, and utilizing AI-driven services and analytics tools. The system should support service registration and discovery through an IDSA-compliant Federated Catalogue</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.(added in TwinEU)</t>
-    </r>
-  </si>
-  <si>
     <t>GSUC2</t>
   </si>
   <si>
@@ -3078,7 +3012,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Once the connector is configured it is able to </t>
+      <t xml:space="preserve">The Data Space Connector must be able to search for metadata </t>
     </r>
     <r>
       <rPr>
@@ -3089,23 +3023,55 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>connect the 
-Brokers for starting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> start data exchange. The connector is able to provide and/or search metadata as well as discover for new data sources and participants.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Data Space Connector must be able to search for metadata </t>
+      <t>connecting to a Broker</t>
+    </r>
+  </si>
+  <si>
+    <t>Each Participant must be uniquely identified using certification</t>
+  </si>
+  <si>
+    <t>TwinEU  Participants are uniquely identified within the TwinEU ecosystem, using certification process and establishing trust among all participants.</t>
+  </si>
+  <si>
+    <t>The system could enable data versioning and traceability to track 
+data provenance and integrity.</t>
+  </si>
+  <si>
+    <t>The system could support real-world validation of Digital 
+Twin interoperability through simulation environments.</t>
+  </si>
+  <si>
+    <t>Validation of DT</t>
+  </si>
+  <si>
+    <t>The system could include an error-handling mechanism that enables 
+automatic retries and logs failures for further analysis.</t>
+  </si>
+  <si>
+    <t>The system shall enable integration of heterogeneous data sources regardless of their structure or format.</t>
+  </si>
+  <si>
+    <t>Integration of heterogeneous data sources</t>
+  </si>
+  <si>
+    <t>The system shall verify that only trusted and authorized Digital Twins are permitted to participate in data exchange</t>
+  </si>
+  <si>
+    <t>Trusted and authorized Digital Twins</t>
+  </si>
+  <si>
+    <t>Compliance Validation</t>
+  </si>
+  <si>
+    <t>The system could provide compliance validation for all TwinEU components.</t>
+  </si>
+  <si>
+    <t>The system should provide pre-built components and building blocks to facilitate rapid creation of XR applications by developers in an easy way. The system should provide reusable building blocks to enable rapid development of XR applications</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Data Space connector must be able to send metadata of a data source to 
+one or more </t>
     </r>
     <r>
       <rPr>
@@ -3116,57 +3082,67 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>connecting to a Broker</t>
-    </r>
-  </si>
-  <si>
-    <t>Each Participant must be uniquely identified using certification</t>
-  </si>
-  <si>
-    <t>TwinEU  Participants are uniquely identified within the TwinEU ecosystem, using certification process and establishing trust among all participants.</t>
-  </si>
-  <si>
-    <t>The system could enable data versioning and traceability to track 
-data provenance and integrity.</t>
-  </si>
-  <si>
-    <t>The system could support real-world validation of Digital 
-Twin interoperability through simulation environments.</t>
-  </si>
-  <si>
-    <t>Validation of DT</t>
-  </si>
-  <si>
-    <t>The system could include an error-handling mechanism that enables 
-automatic retries and logs failures for further analysis.</t>
-  </si>
-  <si>
-    <t>The system shall enable integration of heterogeneous data sources regardless of their structure or format.</t>
-  </si>
-  <si>
-    <t>Integration of heterogeneous data sources</t>
-  </si>
-  <si>
-    <t>The system shall verify that only trusted and authorized Digital Twins are permitted to participate in data exchange</t>
-  </si>
-  <si>
-    <t>Trusted and authorized Digital Twins</t>
-  </si>
-  <si>
-    <t>Compliance Validation</t>
-  </si>
-  <si>
-    <t>The system could provide compliance validation for all TwinEU components.</t>
-  </si>
-  <si>
-    <t>The system should provide pre-built components and building blocks to facilitate rapid creation of XR applications by developers in an easy way. The system should provide reusable building blocks to enable rapid development of XR applications</t>
+      <t>Brokers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> system components</t>
+    </r>
+  </si>
+  <si>
+    <t>from OneNet: 
+GSUC 2, GSUC 3</t>
+  </si>
+  <si>
+    <t>The Data Space Connector must be able to search for metadata published within the data space.</t>
+  </si>
+  <si>
+    <t>Once the connector is configured it is able to provide and/or search metadata as well as discover for new data sources and participants.</t>
+  </si>
+  <si>
+    <t>from OneNet/ modified: 
+GSUC 2, GSUC 3</t>
+  </si>
+  <si>
+    <r>
+      <t>The TwinEU Orchestration Workbench aims to support the data 
+orchestration for the evaluation of the performance and scalability of the AI, IoT and Big Data cross-platform services for market and grid operations. The TwinEU Orchestration Workbench allows to integrate data coming from the TwinEU middleware and implement a data pipeline orchestration. It also should include: Job Scheduling App/Service registry and discovery Error/Retries management SLAs tracking, alerting and notification. 
+The system should provide a centralized AI &amp; Big Data marketplace for 
+discovering, integrating, and utilizing AI-driven services and analytics tools. The system should support service registration and discovery through an IDSA-compliant Federated Catalogue</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. (added in TwinEU)</t>
+    </r>
+  </si>
+  <si>
+    <t>Once the connector is configured it is able tostart data exchange. The connector is able to provide and/or search metadata as well as discover for new data sources and participants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system will not provide detailed edge device control </t>
+  </si>
+  <si>
+    <t>OneNet_FUR_08
+GSUC_02_04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3191,13 +3167,6 @@
       <color rgb="FF0D0D0D"/>
       <name val="Century Gothic"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -3249,14 +3218,6 @@
       <color rgb="FFFF0000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <strike/>
@@ -3315,8 +3276,28 @@
       <name val="Aptos Display"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3345,6 +3326,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -3600,10 +3586,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -3631,10 +3618,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3652,20 +3639,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -3690,34 +3677,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3792,17 +3779,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3831,17 +3821,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4830,8 +4823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC003000-FB54-4FFF-B2DC-1A9F50DA1C00}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A41" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5125,7 +5118,7 @@
         <v>52</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>4</v>
@@ -5167,7 +5160,7 @@
       </c>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="24" t="s">
         <v>4</v>
       </c>
@@ -5185,7 +5178,7 @@
       </c>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="24" t="s">
         <v>4</v>
       </c>
@@ -5221,7 +5214,7 @@
       </c>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:6" ht="93.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="93.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="24" t="s">
         <v>4</v>
       </c>
@@ -5239,7 +5232,7 @@
       </c>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>70</v>
       </c>
@@ -5247,13 +5240,13 @@
         <v>71</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>72</v>
+        <v>470</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F47" s="9"/>
     </row>
@@ -5379,7 +5372,7 @@
     <mergeCell ref="A19:A29"/>
     <mergeCell ref="C30:E30"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5390,8 +5383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8E3142-C4BE-4B21-AD1E-56D3A7F7F140}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A32" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5409,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5423,7 +5416,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -5431,55 +5424,55 @@
         <v>5</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57"/>
       <c r="B5" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="57"/>
       <c r="B6" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="57"/>
       <c r="B7" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="57"/>
       <c r="B8" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="57"/>
       <c r="B9" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="57"/>
       <c r="B10" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="57"/>
       <c r="B11" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="270.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="57"/>
       <c r="B12" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5487,7 +5480,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5495,31 +5488,31 @@
         <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="51"/>
       <c r="B15" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="51"/>
       <c r="B16" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="51"/>
       <c r="B17" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="52"/>
       <c r="B18" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5531,7 +5524,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5543,7 +5536,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="53"/>
       <c r="D22" s="54"/>
@@ -5555,7 +5548,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -5585,144 +5578,144 @@
     </row>
     <row r="30" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>96</v>
-      </c>
       <c r="D30" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="D31" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="D32" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>105</v>
-      </c>
       <c r="D33" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="D34" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="D35" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="D36" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>117</v>
-      </c>
       <c r="D37" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="D38" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>59</v>
@@ -5731,19 +5724,19 @@
     </row>
     <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="C39" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="D39" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="F39" s="9"/>
     </row>
@@ -5898,7 +5891,7 @@
     <mergeCell ref="A4:A12"/>
     <mergeCell ref="C22:E22"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5908,8 +5901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3469DBBC-245C-46EC-B045-D1219230D97E}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D35" sqref="A26:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5927,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5935,13 +5928,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="28"/>
       <c r="B3" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.35">
@@ -5949,31 +5942,31 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51"/>
       <c r="B5" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="51"/>
       <c r="B7" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="52"/>
       <c r="B8" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="119.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5981,7 +5974,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5989,25 +5982,25 @@
         <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="51"/>
       <c r="B11" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="51"/>
       <c r="B12" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="51"/>
       <c r="B13" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6019,7 +6012,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6031,20 +6024,20 @@
         <v>32</v>
       </c>
       <c r="B17" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="53" t="s">
         <v>139</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>140</v>
       </c>
       <c r="D17" s="54"/>
       <c r="E17" s="54"/>
     </row>
     <row r="18" spans="1:6" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -6074,128 +6067,128 @@
     </row>
     <row r="26" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>145</v>
-      </c>
       <c r="D26" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="D27" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="D28" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>154</v>
-      </c>
       <c r="D29" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>158</v>
-      </c>
       <c r="D31" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>161</v>
-      </c>
       <c r="D32" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>164</v>
-      </c>
       <c r="D33" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>59</v>
@@ -6204,16 +6197,16 @@
     </row>
     <row r="34" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>166</v>
-      </c>
       <c r="D34" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>59</v>
@@ -6222,16 +6215,16 @@
     </row>
     <row r="35" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>59</v>
@@ -6404,7 +6397,7 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C17:E17"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6414,15 +6407,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE5E361-40B1-45B5-967B-5DCD2C6BD99A}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="103" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A40" zoomScale="103" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.1796875" customWidth="1"/>
     <col min="2" max="2" width="96.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="67.7265625" customWidth="1"/>
     <col min="5" max="5" width="17.453125" customWidth="1"/>
     <col min="6" max="6" width="42.1796875" customWidth="1"/>
@@ -6434,13 +6427,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6448,13 +6441,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="142.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6462,13 +6455,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="215.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6476,13 +6469,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6490,19 +6483,19 @@
         <v>15</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" s="51"/>
       <c r="D6" s="63"/>
@@ -6510,7 +6503,7 @@
     <row r="7" spans="1:4" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="51"/>
       <c r="B7" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="63"/>
@@ -6518,7 +6511,7 @@
     <row r="8" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="51"/>
       <c r="B8" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="63"/>
@@ -6526,7 +6519,7 @@
     <row r="9" spans="1:4" ht="62.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="51"/>
       <c r="B9" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" s="51"/>
       <c r="D9" s="63"/>
@@ -6534,7 +6527,7 @@
     <row r="10" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="51"/>
       <c r="B10" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="63"/>
@@ -6542,7 +6535,7 @@
     <row r="11" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="51"/>
       <c r="B11" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="51"/>
       <c r="D11" s="63"/>
@@ -6550,7 +6543,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="51"/>
       <c r="B12" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="63"/>
@@ -6558,7 +6551,7 @@
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="52"/>
       <c r="B13" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="52"/>
       <c r="D13" s="64"/>
@@ -6568,83 +6561,83 @@
         <v>22</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" s="50" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="51"/>
       <c r="B15" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="51"/>
       <c r="B16" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="51"/>
       <c r="D16" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="107.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="51"/>
       <c r="B17" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" s="51"/>
       <c r="D17" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="51"/>
       <c r="B18" s="47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C18" s="51"/>
       <c r="D18" s="47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="51"/>
       <c r="B19" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" s="51"/>
       <c r="D19" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="51"/>
       <c r="B20" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" s="51"/>
       <c r="D20" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="52"/>
       <c r="B21" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="52"/>
       <c r="D21" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="350.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6652,13 +6645,13 @@
         <v>32</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="291.64999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6701,422 +6694,422 @@
     </row>
     <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>201</v>
-      </c>
       <c r="E32" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D33" s="60" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D34" s="61"/>
       <c r="E34" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D35" s="61"/>
       <c r="E35" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>209</v>
-      </c>
       <c r="E36" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>212</v>
-      </c>
       <c r="E37" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>214</v>
+        <v>463</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D38" s="58" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D39" s="59"/>
       <c r="E39" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D40" s="59"/>
       <c r="E40" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D42" s="58" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D44" s="58" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D45" s="59"/>
       <c r="E45" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D46" s="59"/>
       <c r="E46" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D47" s="59"/>
       <c r="E47" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:8" s="14" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" s="14" customFormat="1" ht="29.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="44" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="26"/>
     </row>
-    <row r="50" spans="1:8" ht="53.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="53.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
@@ -7161,7 +7154,7 @@
     <mergeCell ref="C5:C13"/>
     <mergeCell ref="C14:C21"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7171,8 +7164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B23138-3F87-4CCB-88D6-CA26FB5E21BA}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7190,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7204,7 +7197,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="56.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7212,49 +7205,49 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51"/>
       <c r="B5" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="44.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="51"/>
       <c r="B7" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="51"/>
       <c r="B8" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="51"/>
       <c r="B9" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="51"/>
       <c r="B10" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="52"/>
       <c r="B11" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="149.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7262,7 +7255,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -7272,7 +7265,7 @@
     <row r="14" spans="1:2" ht="111" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="51"/>
       <c r="B14" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -7282,7 +7275,7 @@
     <row r="16" spans="1:2" ht="109" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="51"/>
       <c r="B16" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -7292,7 +7285,7 @@
     <row r="18" spans="1:2" ht="71.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="52"/>
       <c r="B18" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.35">
@@ -7300,73 +7293,73 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="51"/>
       <c r="B20" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="51"/>
       <c r="B21" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="51"/>
       <c r="B22" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="51"/>
       <c r="B23" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="51"/>
       <c r="B24" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="51"/>
       <c r="B25" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="51"/>
       <c r="B26" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="51"/>
       <c r="B27" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="51"/>
       <c r="B28" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="51"/>
       <c r="B29" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="52"/>
       <c r="B30" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -7374,13 +7367,13 @@
         <v>22</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="51"/>
       <c r="B32" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -7392,61 +7385,61 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="51"/>
       <c r="B34" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="51"/>
       <c r="B35" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="51"/>
       <c r="B36" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="51"/>
       <c r="B37" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="51"/>
       <c r="B38" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="51"/>
       <c r="B39" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="51"/>
       <c r="B40" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="51"/>
       <c r="B41" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="51"/>
       <c r="B42" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="52"/>
       <c r="B43" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -7454,7 +7447,7 @@
         <v>32</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="66"/>
@@ -7484,423 +7477,423 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>197</v>
-      </c>
       <c r="C49" s="13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" t="s">
         <v>199</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>201</v>
-      </c>
       <c r="D50" s="13" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B51" t="s">
-        <v>296</v>
-      </c>
-      <c r="C51" s="72" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="C51" s="70" t="s">
+        <v>293</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
     <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" t="s">
         <v>203</v>
       </c>
-      <c r="B52" t="s">
-        <v>204</v>
-      </c>
-      <c r="C52" s="73"/>
+      <c r="C52" s="71"/>
       <c r="D52" s="13" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>204</v>
+      </c>
+      <c r="B53" t="s">
         <v>205</v>
       </c>
-      <c r="B53" t="s">
-        <v>206</v>
-      </c>
-      <c r="C53" s="73"/>
+      <c r="C53" s="71"/>
       <c r="D53" s="13" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
     <row r="54" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>209</v>
-      </c>
       <c r="D54" s="13" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55" t="s">
         <v>210</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>212</v>
-      </c>
       <c r="D55" s="13" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>214</v>
+        <v>463</v>
       </c>
       <c r="C56" s="68" t="s">
-        <v>215</v>
+        <v>466</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B57" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C57" s="69"/>
       <c r="D57" s="13" t="s">
-        <v>198</v>
+        <v>467</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" s="84" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>218</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>219</v>
+        <v>215</v>
+      </c>
+      <c r="B58" t="s">
+        <v>465</v>
       </c>
       <c r="C58" s="69"/>
       <c r="D58" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
+        <v>464</v>
+      </c>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
     </row>
     <row r="59" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C60" s="68" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C61" s="69"/>
       <c r="D61" s="13" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C62" s="68" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
     </row>
     <row r="63" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C63" s="69"/>
       <c r="D63" s="13" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
     </row>
     <row r="64" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C64" s="69"/>
       <c r="D64" s="13" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
     </row>
     <row r="65" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C65" s="69"/>
       <c r="D65" s="13" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
     </row>
     <row r="66" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C67" s="62" t="s">
-        <v>300</v>
+        <v>295</v>
+      </c>
+      <c r="C67" s="86" t="s">
+        <v>468</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
     </row>
     <row r="68" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="C68" s="70"/>
+        <v>298</v>
+      </c>
+      <c r="C68" s="87"/>
       <c r="D68" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
     </row>
     <row r="69" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C69" s="70"/>
+        <v>300</v>
+      </c>
+      <c r="C69" s="87"/>
       <c r="D69" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
     <row r="70" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="C70" s="70"/>
+        <v>302</v>
+      </c>
+      <c r="C70" s="87"/>
       <c r="D70" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
     </row>
     <row r="71" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C71" s="70"/>
+        <v>304</v>
+      </c>
+      <c r="C71" s="87"/>
       <c r="D71" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
     </row>
     <row r="72" spans="1:6" ht="54.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="C72" s="71"/>
+        <v>306</v>
+      </c>
+      <c r="C72" s="88"/>
       <c r="D72" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
     </row>
     <row r="73" spans="1:6" s="19" customFormat="1" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="14" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="9"/>
     </row>
     <row r="74" spans="1:6" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="17" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E74" s="17"/>
       <c r="F74" s="9"/>
     </row>
     <row r="75" spans="1:6" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="17" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
     </row>
     <row r="76" spans="1:6" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="17" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
@@ -8109,7 +8102,7 @@
     <mergeCell ref="C56:C58"/>
     <mergeCell ref="C44:E44"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8119,8 +8112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2398114-9418-412C-B027-E4F421BC2ADA}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="A64" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D71" sqref="A54:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8138,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8146,7 +8139,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8160,67 +8153,67 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51"/>
       <c r="B5" s="21" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="21" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="51"/>
       <c r="B7" s="6" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="51"/>
       <c r="B8" s="21" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="51"/>
       <c r="B9" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="41.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="51"/>
       <c r="B10" s="6" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="51"/>
       <c r="B11" s="6" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="51"/>
       <c r="B12" s="6" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="51"/>
       <c r="B13" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="69.650000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="52"/>
       <c r="B14" s="34" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="180.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -8228,49 +8221,49 @@
         <v>11</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="51"/>
       <c r="B16" s="6" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="51"/>
       <c r="B17" s="6" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="51"/>
       <c r="B18" s="6" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="51"/>
       <c r="B19" s="6" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="51"/>
       <c r="B20" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="51"/>
       <c r="B21" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="50" x14ac:dyDescent="0.35">
       <c r="A22" s="51"/>
       <c r="B22" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8282,43 +8275,43 @@
         <v>15</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="51"/>
       <c r="B25" s="6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="51"/>
       <c r="B26" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="51"/>
       <c r="B27" s="6" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="51"/>
       <c r="B28" s="6" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="50" x14ac:dyDescent="0.35">
       <c r="A29" s="51"/>
       <c r="B29" s="6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="52"/>
       <c r="B30" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
@@ -8326,79 +8319,79 @@
         <v>22</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="51"/>
       <c r="B32" s="21" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="51"/>
       <c r="B33" s="21" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="51"/>
       <c r="B34" s="12" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="51"/>
       <c r="B35" s="21" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="51"/>
       <c r="B36" s="21" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="51"/>
       <c r="B37" s="21" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="51"/>
       <c r="B38" s="21" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="51"/>
       <c r="B39" s="21" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="51"/>
       <c r="B40" s="6" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="51"/>
       <c r="B41" s="21" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="51"/>
       <c r="B42" s="6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="51"/>
       <c r="B43" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -8410,19 +8403,19 @@
     <row r="45" spans="1:5" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="51"/>
       <c r="B45" s="6" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="51"/>
       <c r="B46" s="6" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="38.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="52"/>
       <c r="B47" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -8430,7 +8423,7 @@
         <v>32</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C48" s="53"/>
       <c r="D48" s="54"/>
@@ -8471,305 +8464,305 @@
     </row>
     <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="23" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="23" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="23" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
     </row>
     <row r="63" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="23" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
     </row>
     <row r="64" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="23" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F64" s="9"/>
     </row>
     <row r="65" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="23" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F65" s="9"/>
     </row>
     <row r="66" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="23" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F67" s="9"/>
     </row>
     <row r="68" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="23" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F68" s="9"/>
     </row>
     <row r="69" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F69" s="9"/>
     </row>
     <row r="70" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F70" s="9"/>
     </row>
     <row r="71" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F71" s="9"/>
     </row>
@@ -8887,7 +8880,7 @@
     <mergeCell ref="A31:A47"/>
     <mergeCell ref="C48:E48"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8897,7 +8890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC4A7E8-5452-441C-BD86-BF5C1C59E8F6}">
   <dimension ref="A1:D341"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A516" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B22"/>
     </sheetView>
   </sheetViews>
@@ -8912,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8920,207 +8913,207 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="74" t="s">
-        <v>420</v>
+      <c r="B3" s="75" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="81"/>
-      <c r="B4" s="75"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="76"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="81"/>
-      <c r="B5" s="75"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="76"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="81"/>
-      <c r="B6" s="75"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="76"/>
     </row>
     <row r="7" spans="1:2" ht="177" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="81"/>
-      <c r="B7" s="75"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="76"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="81"/>
-      <c r="B8" s="75"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="76"/>
     </row>
     <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="81"/>
-      <c r="B9" s="75"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="76"/>
     </row>
     <row r="10" spans="1:2" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="81"/>
-      <c r="B10" s="75"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="76"/>
     </row>
     <row r="11" spans="1:2" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="81"/>
-      <c r="B11" s="75"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="76"/>
     </row>
     <row r="12" spans="1:2" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="81"/>
-      <c r="B12" s="75"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="76"/>
     </row>
     <row r="13" spans="1:2" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="82"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="77"/>
     </row>
     <row r="14" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="74" t="s">
-        <v>421</v>
+      <c r="B14" s="75" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="51"/>
-      <c r="B15" s="75"/>
+      <c r="B15" s="76"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="51"/>
-      <c r="B16" s="75"/>
+      <c r="B16" s="76"/>
     </row>
     <row r="17" spans="1:2" ht="175" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="51"/>
-      <c r="B17" s="75"/>
+      <c r="B17" s="76"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="51"/>
-      <c r="B18" s="75"/>
+      <c r="B18" s="76"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="51"/>
-      <c r="B19" s="75"/>
+      <c r="B19" s="76"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="51"/>
-      <c r="B20" s="75"/>
+      <c r="B20" s="76"/>
     </row>
     <row r="21" spans="1:2" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="51"/>
-      <c r="B21" s="75"/>
+      <c r="B21" s="76"/>
     </row>
     <row r="22" spans="1:2" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="52"/>
-      <c r="B22" s="76"/>
+      <c r="B22" s="77"/>
     </row>
     <row r="23" spans="1:2" ht="123.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="74" t="s">
-        <v>422</v>
+      <c r="B23" s="75" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="51"/>
-      <c r="B24" s="75"/>
+      <c r="B24" s="76"/>
     </row>
     <row r="25" spans="1:2" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="51"/>
-      <c r="B25" s="75"/>
+      <c r="B25" s="76"/>
     </row>
     <row r="26" spans="1:2" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="51"/>
-      <c r="B26" s="75"/>
+      <c r="B26" s="76"/>
     </row>
     <row r="27" spans="1:2" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="51"/>
-      <c r="B27" s="75"/>
+      <c r="B27" s="76"/>
     </row>
     <row r="28" spans="1:2" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="51"/>
-      <c r="B28" s="75"/>
+      <c r="B28" s="76"/>
     </row>
     <row r="29" spans="1:2" ht="1.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="52"/>
-      <c r="B29" s="76"/>
+      <c r="B29" s="77"/>
     </row>
     <row r="30" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="77" t="s">
-        <v>423</v>
+      <c r="B30" s="78" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="51"/>
-      <c r="B31" s="78"/>
+      <c r="B31" s="79"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="51"/>
-      <c r="B32" s="78"/>
+      <c r="B32" s="79"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="51"/>
-      <c r="B33" s="78"/>
+      <c r="B33" s="79"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="51"/>
-      <c r="B34" s="78"/>
+      <c r="B34" s="79"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="51"/>
-      <c r="B35" s="78"/>
+      <c r="B35" s="79"/>
     </row>
     <row r="36" spans="1:2" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="51"/>
-      <c r="B36" s="78"/>
+      <c r="B36" s="79"/>
     </row>
     <row r="37" spans="1:2" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="51"/>
-      <c r="B37" s="78"/>
+      <c r="B37" s="79"/>
     </row>
     <row r="38" spans="1:2" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="51"/>
-      <c r="B38" s="78"/>
+      <c r="B38" s="79"/>
     </row>
     <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="51"/>
-      <c r="B39" s="78"/>
+      <c r="B39" s="79"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="51"/>
-      <c r="B40" s="78"/>
+      <c r="B40" s="79"/>
     </row>
     <row r="41" spans="1:2" ht="2.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="51"/>
-      <c r="B41" s="78"/>
+      <c r="B41" s="79"/>
     </row>
     <row r="42" spans="1:2" ht="9.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="51"/>
-      <c r="B42" s="78"/>
+      <c r="B42" s="79"/>
     </row>
     <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="51"/>
-      <c r="B43" s="78"/>
+      <c r="B43" s="79"/>
     </row>
     <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="51"/>
-      <c r="B44" s="78"/>
+      <c r="B44" s="79"/>
     </row>
     <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="51"/>
-      <c r="B45" s="78"/>
+      <c r="B45" s="79"/>
     </row>
     <row r="46" spans="1:2" ht="9.65" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="52"/>
-      <c r="B46" s="79"/>
+      <c r="B46" s="80"/>
     </row>
     <row r="47" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -9129,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9137,7 +9130,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -9145,49 +9138,49 @@
         <v>5</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="51"/>
       <c r="B77" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A78" s="51"/>
       <c r="B78" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A79" s="51"/>
       <c r="B79" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A80" s="51"/>
       <c r="B80" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A81" s="51"/>
       <c r="B81" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A82" s="51"/>
       <c r="B82" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="52"/>
       <c r="B83" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="100" x14ac:dyDescent="0.35">
@@ -9195,7 +9188,7 @@
         <v>11</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -9205,7 +9198,7 @@
     <row r="86" spans="1:4" ht="75" x14ac:dyDescent="0.35">
       <c r="A86" s="51"/>
       <c r="B86" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -9215,7 +9208,7 @@
     <row r="88" spans="1:4" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A88" s="51"/>
       <c r="B88" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D88" s="46"/>
     </row>
@@ -9226,7 +9219,7 @@
     <row r="90" spans="1:4" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="52"/>
       <c r="B90" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -9234,73 +9227,73 @@
         <v>15</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A92" s="51"/>
       <c r="B92" s="6" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A93" s="51"/>
       <c r="B93" s="6" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="51"/>
       <c r="B94" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A95" s="51"/>
       <c r="B95" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A96" s="51"/>
       <c r="B96" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A97" s="51"/>
       <c r="B97" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A98" s="51"/>
       <c r="B98" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A99" s="51"/>
       <c r="B99" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A100" s="51"/>
       <c r="B100" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A101" s="51"/>
       <c r="B101" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="52"/>
       <c r="B102" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -9308,13 +9301,13 @@
         <v>22</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="51"/>
       <c r="B104" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -9326,61 +9319,61 @@
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="51"/>
       <c r="B106" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="51"/>
       <c r="B107" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="51"/>
       <c r="B108" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="51"/>
       <c r="B109" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="51"/>
       <c r="B110" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="51"/>
       <c r="B111" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="51"/>
       <c r="B112" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="51"/>
       <c r="B113" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="51"/>
       <c r="B114" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="52"/>
       <c r="B115" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -9388,7 +9381,7 @@
         <v>32</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -9397,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9405,7 +9398,7 @@
         <v>3</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="102" thickBot="1" x14ac:dyDescent="0.4">
@@ -9413,7 +9406,7 @@
         <v>5</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="160" thickBot="1" x14ac:dyDescent="0.4">
@@ -9421,7 +9414,7 @@
         <v>11</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -9429,7 +9422,7 @@
         <v>15</v>
       </c>
       <c r="B150" s="62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -9469,49 +9462,49 @@
         <v>22</v>
       </c>
       <c r="B159" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="51"/>
       <c r="B160" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="51"/>
       <c r="B161" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A162" s="51"/>
       <c r="B162" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="51"/>
       <c r="B163" s="47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="51"/>
       <c r="B164" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="51"/>
       <c r="B165" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="52"/>
       <c r="B166" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="319.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -9519,7 +9512,7 @@
         <v>32</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -9528,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9536,7 +9529,7 @@
         <v>3</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
@@ -9544,31 +9537,31 @@
         <v>5</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A195" s="51"/>
       <c r="B195" s="11" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A196" s="51"/>
       <c r="B196" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A197" s="51"/>
       <c r="B197" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="52"/>
       <c r="B198" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.4">
@@ -9576,7 +9569,7 @@
         <v>11</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
@@ -9584,25 +9577,25 @@
         <v>15</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="51"/>
       <c r="B201" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A202" s="51"/>
       <c r="B202" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="51"/>
       <c r="B203" s="11" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9614,7 +9607,7 @@
         <v>22</v>
       </c>
       <c r="B205" s="55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -9623,10 +9616,10 @@
     </row>
     <row r="207" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D207" s="48"/>
     </row>
@@ -9636,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9644,55 +9637,55 @@
         <v>3</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B230" s="83" t="s">
-        <v>84</v>
+      <c r="B230" s="72" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="57"/>
-      <c r="B231" s="84"/>
+      <c r="B231" s="73"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="57"/>
-      <c r="B232" s="84"/>
+      <c r="B232" s="73"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="57"/>
-      <c r="B233" s="84"/>
+      <c r="B233" s="73"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="57"/>
-      <c r="B234" s="84"/>
+      <c r="B234" s="73"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="57"/>
-      <c r="B235" s="84"/>
+      <c r="B235" s="73"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="57"/>
-      <c r="B236" s="84"/>
+      <c r="B236" s="73"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="57"/>
-      <c r="B237" s="84"/>
+      <c r="B237" s="73"/>
     </row>
     <row r="238" spans="1:2" ht="80.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="57"/>
-      <c r="B238" s="85"/>
+      <c r="B238" s="74"/>
     </row>
     <row r="239" spans="1:2" ht="213" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A239" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
@@ -9700,31 +9693,31 @@
         <v>15</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A241" s="51"/>
       <c r="B241" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="51"/>
       <c r="B242" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A243" s="51"/>
       <c r="B243" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A244" s="52"/>
       <c r="B244" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
@@ -9732,7 +9725,7 @@
         <v>22</v>
       </c>
       <c r="B245" s="55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="27.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -9744,7 +9737,7 @@
         <v>32</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -9932,20 +9925,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A320:A323"/>
-    <mergeCell ref="A324:A329"/>
-    <mergeCell ref="A330:A340"/>
-    <mergeCell ref="A240:A244"/>
-    <mergeCell ref="A245:A246"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="B230:B238"/>
-    <mergeCell ref="A315:A319"/>
-    <mergeCell ref="A159:A166"/>
-    <mergeCell ref="A194:A198"/>
-    <mergeCell ref="A200:A204"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="A230:A238"/>
     <mergeCell ref="B150:B158"/>
     <mergeCell ref="B14:B22"/>
     <mergeCell ref="B30:B46"/>
@@ -9960,6 +9939,20 @@
     <mergeCell ref="A91:A102"/>
     <mergeCell ref="A103:A115"/>
     <mergeCell ref="A150:A158"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="B230:B238"/>
+    <mergeCell ref="A315:A319"/>
+    <mergeCell ref="A159:A166"/>
+    <mergeCell ref="A194:A198"/>
+    <mergeCell ref="A200:A204"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="A230:A238"/>
+    <mergeCell ref="A320:A323"/>
+    <mergeCell ref="A324:A329"/>
+    <mergeCell ref="A330:A340"/>
+    <mergeCell ref="A240:A244"/>
+    <mergeCell ref="A245:A246"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9978,6 +9971,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010050B7A9603DF1A244B8132CE1C1B398A8" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a440459976170ea38fb7eb2e040ba179">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa" xmlns:ns3="6eb2050a-b6f7-4b0c-983c-e4078fb34326" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba382d81cd35db01624f0cbef7b1ab06" ns2:_="" ns3:_="">
     <xsd:import namespace="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
@@ -10212,33 +10214,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C4CDC2B-2508-4500-A767-6608CE6CCC66}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6eb2050a-b6f7-4b0c-983c-e4078fb34326"/>
     <ds:schemaRef ds:uri="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="6eb2050a-b6f7-4b0c-983c-e4078fb34326"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6195609-6637-43D9-8DEA-11DA231B1FBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6967CD9A-A215-41D4-ADA1-CB48D8D00AD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10255,12 +10256,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6195609-6637-43D9-8DEA-11DA231B1FBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GFURs.xlsx
+++ b/GFURs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fraunhofer.sharepoint.com/sites/TwinEU/Freigegebene Dokumente/WP3 Open Architecture for DT/T3.2/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\projects\TwinEU\WP3\T3.2\!GitHub-Documents\T3.2_Functional_specifications_of_pan-European_DT_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1513" documentId="13_ncr:1_{40FEA7CE-8510-411A-985B-C3F18811623C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CF13125-DAF8-421C-AB43-45856691105C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48DD703D-730C-4A37-ADC5-3EB989CFE99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{79F53164-AACA-4BEE-B2C8-7845BDDA5890}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" xr2:uid="{79F53164-AACA-4BEE-B2C8-7845BDDA5890}"/>
   </bookViews>
   <sheets>
     <sheet name="GFURs 6" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="477">
   <si>
     <t>Name GSUC</t>
   </si>
@@ -188,16 +188,10 @@
 be modified or removed?/ should it be optional etc./Add the missing FURs</t>
   </si>
   <si>
-    <t>GSUC_06_01</t>
-  </si>
-  <si>
     <t>High-quality Real-time Data Visualization</t>
   </si>
   <si>
     <t>The system should support high-quality real-time visualization of Digital Twin (DT) data, allowing users to possibly view and analyze live grid performance.</t>
-  </si>
-  <si>
-    <t>GSUC_06_02</t>
   </si>
   <si>
     <t>Multiuser XR Collaboration</t>
@@ -207,31 +201,19 @@
 collaborate within the same Extended Reality (XR) environment in real time.</t>
   </si>
   <si>
-    <t>GSUC_06_03</t>
-  </si>
-  <si>
     <t>Unity3D-Based Plugin Integration</t>
   </si>
   <si>
     <t>The system must integrate a Unity3D-based plugin to streamline  user interaction with DT data and enhance XR visualization capabilities.</t>
   </si>
   <si>
-    <t>GSUC_06_04</t>
-  </si>
-  <si>
     <t>Immersive XR Toolkit</t>
   </si>
   <si>
-    <t>GSUC_06_05</t>
-  </si>
-  <si>
     <t>Advanced VR Visualization Features</t>
   </si>
   <si>
     <t>The system could support Virtual Reality (VR) visualization for immersive energy infrastructure simulations and interactive visualization of grid anomalies, bottlenecks, and infrastructure risks.</t>
-  </si>
-  <si>
-    <t>GSUC_06_06</t>
   </si>
   <si>
     <t>Immersive User Interface (UI)</t>
@@ -281,9 +263,6 @@
 data visualizations, and simulation events for auditing and troubleshooting purposes.</t>
   </si>
   <si>
-    <t>GSUC_06_07</t>
-  </si>
-  <si>
     <t>Security</t>
   </si>
   <si>
@@ -295,9 +274,6 @@
   </si>
   <si>
     <t>The system could include a training, documentation, and interactive tutorials to help users understand Extended Reality (XR) navigation, Digital Twin (DT) simulation controls, and key visualization features.</t>
-  </si>
-  <si>
-    <t>GSUC_06_08</t>
   </si>
   <si>
     <t>Full IoT Edge-Network Control</t>
@@ -678,9 +654,6 @@
     <t>Task 8.1</t>
   </si>
   <si>
-    <t>GSUC_05_01</t>
-  </si>
-  <si>
     <t>Grid Resilience Simulation</t>
   </si>
   <si>
@@ -688,9 +661,6 @@
 resilience of the energy grid under normal and abnormal conditions.</t>
   </si>
   <si>
-    <t>GSUC_05_02</t>
-  </si>
-  <si>
     <t>Grid Stability Analysis for RES and DER Integration</t>
   </si>
   <si>
@@ -698,9 +668,6 @@
 caused by the integration of RES and DER.</t>
   </si>
   <si>
-    <t>GSUC_05_03</t>
-  </si>
-  <si>
     <t>Proactive Grid Planning</t>
   </si>
   <si>
@@ -708,16 +675,10 @@
 operators through predictive analytics for grid stability.</t>
   </si>
   <si>
-    <t>GSUC_05_04</t>
-  </si>
-  <si>
     <t>Scenario-Based Strategic Planning for Infrastructure Expansion</t>
   </si>
   <si>
     <t>The system should enable scenario-based strategic planning for infrastructure expansion and adaptation.</t>
-  </si>
-  <si>
-    <t>GSUC_05_05</t>
   </si>
   <si>
     <t>Abnormal Conditions and Disruptions Modeling</t>
@@ -727,9 +688,6 @@
 disruptions in the energy grid. The system should provide response strategies for mitigating abnormal conditions.</t>
   </si>
   <si>
-    <t>GSUC_05_06</t>
-  </si>
-  <si>
     <t>Infrastructure Bottleneck Identification</t>
   </si>
   <si>
@@ -737,9 +695,6 @@
 impact the efficient transmission and distribution of energy.</t>
   </si>
   <si>
-    <t>GSUC_05_07</t>
-  </si>
-  <si>
     <t>Large-Scale Integration of RES and DER</t>
   </si>
   <si>
@@ -747,9 +702,6 @@
 grid stability and adjust control mechanisms accordingly.</t>
   </si>
   <si>
-    <t>GSUC_05_08</t>
-  </si>
-  <si>
     <t>Pan-European Energy Market Scenario Modeling</t>
   </si>
   <si>
@@ -757,17 +709,11 @@
 across Europe to simulate cross-border energy exchanges, market trends, and impact of regulatory frameworks.</t>
   </si>
   <si>
-    <t>GSUC_05_09</t>
-  </si>
-  <si>
     <t>Report Generation</t>
   </si>
   <si>
     <t>The system could generate reports on potential 
 vulnerabilities in the grid infrastructure. Furthermore, the system should generate dynamic reports to support real-time and historical analysis.</t>
-  </si>
-  <si>
-    <t>GSUC_05_10</t>
   </si>
   <si>
     <t>Wanning System</t>
@@ -1046,9 +992,6 @@
 end note</t>
   </si>
   <si>
-    <t>GSUC_04_01</t>
-  </si>
-  <si>
     <t>Validation agains regulatory standards, directives, laws, and codes</t>
   </si>
   <si>
@@ -1056,9 +999,6 @@
 against applicable regulatory standards, directives, laws, and codes.</t>
   </si>
   <si>
-    <t>GSUC_04_02</t>
-  </si>
-  <si>
     <t>Regulatory Compliance Enforcement</t>
   </si>
   <si>
@@ -1066,16 +1006,10 @@
 before data is accepted or shared within the TwinEU system.</t>
   </si>
   <si>
-    <t>GSUC_04_03</t>
-  </si>
-  <si>
     <t>Secure and Transparent Data Exchange with CIM in two SGAM Layers</t>
   </si>
   <si>
     <t>The system must enable secure and transparent data exchange using CIM standard definitions within the Communication and Information layers of SGAM.</t>
-  </si>
-  <si>
-    <t>GSUC_04_04</t>
   </si>
   <si>
     <t>CIM-Based Interoperability for SGAM 
@@ -1085,12 +1019,6 @@
     <t>The system should implement the CIM standard in the Communication and Information layers of the SGAM communication model to ensure interoperability and standardized data exchange.</t>
   </si>
   <si>
-    <t>GSUC_04_05</t>
-  </si>
-  <si>
-    <t>GSUC_04_06</t>
-  </si>
-  <si>
     <t>Monitoring of Regulatory Changes</t>
   </si>
   <si>
@@ -1098,9 +1026,6 @@
 national, and regional levels.</t>
   </si>
   <si>
-    <t>GSUC_04_07</t>
-  </si>
-  <si>
     <t>Secure and Transparent Data Exchange</t>
   </si>
   <si>
@@ -1108,9 +1033,6 @@
 for regulatory data, ensuring only authorized entities can access or modify it.</t>
   </si>
   <si>
-    <t>GSUC_04_08</t>
-  </si>
-  <si>
     <t>Allerts issuing</t>
   </si>
   <si>
@@ -1118,14 +1040,8 @@
 non-compliance in data exchanges.</t>
   </si>
   <si>
-    <t>GSUC_04_09</t>
-  </si>
-  <si>
     <t>The system could generate periodic compliance reports 
 detailing regulatory adherence and potential violations. The system could allow authorized users to export compliance reports in standard formats (e.g., PDF, CSV, XML).</t>
-  </si>
-  <si>
-    <t>GSUC_04_10</t>
   </si>
   <si>
     <t>The system could log all compliance validation activities 
@@ -1920,9 +1836,6 @@
     <t>TwinEU Participants are uniquely identified within the TwinEU ecosystem, using certification process and establishing trust among all participants.</t>
   </si>
   <si>
-    <t xml:space="preserve">OneNet_FUR_27 </t>
-  </si>
-  <si>
     <t>The TwinEU Orchestration Workbench must be able to manage data and 
 service orchestration</t>
   </si>
@@ -1930,43 +1843,25 @@
     <t>GSUC2</t>
   </si>
   <si>
-    <t xml:space="preserve">OneNet_FUR_28 </t>
-  </si>
-  <si>
     <t>The TwinEU Orchestration Workbench must be able to integrate data using the 
 TwinEU Middleware</t>
   </si>
   <si>
-    <t>OneNet_FUR_29</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The Service Provider must be able to register its service in the 
 TwinEU Orchestration Workbench</t>
   </si>
   <si>
-    <t xml:space="preserve">OneNet_FUR_30 </t>
-  </si>
-  <si>
     <t>The Service Provider must be able to create a data workflow using the 
 Orchestration Workbench</t>
   </si>
   <si>
-    <t xml:space="preserve">OneNet_FUR_31 </t>
-  </si>
-  <si>
     <t>The Service Provider must be able to evaluate the performance of its own service</t>
-  </si>
-  <si>
-    <t>OneNet_FUR_32</t>
   </si>
   <si>
     <t xml:space="preserve"> The TwinEU Orchestration Workbench should provide a service catalogue to 
 the TwinEU Participants</t>
   </si>
   <si>
-    <t xml:space="preserve">OneNet_FUR_33 </t>
-  </si>
-  <si>
     <t>The TwinEU system should offer a UI dashboard to TwinEU Participants for 
 monitoring and analytics</t>
   </si>
@@ -1975,9 +1870,6 @@
 TwinEU Participants in the management, monitoring and analytics of the data transactions.</t>
   </si>
   <si>
-    <t>GSUC_02_01</t>
-  </si>
-  <si>
     <t>AI &amp; Big Data Marketplace for providers</t>
   </si>
   <si>
@@ -1985,17 +1877,11 @@
 AI models, services, and data assets.</t>
   </si>
   <si>
-    <t>GSUC_02_02</t>
-  </si>
-  <si>
     <t>AI &amp; Big Data Marketplace for consumers</t>
   </si>
   <si>
     <t>The system should enable data consumers to access and integrate 
 available AI-driven services via standardized APIs.</t>
-  </si>
-  <si>
-    <t>GSUC_02_03</t>
   </si>
   <si>
     <t>Predictive Analytics and Data-Driven AI Solutions</t>
@@ -2581,9 +2467,6 @@
 DT -&gt; FDT : Operate under secure, authorized conditions</t>
   </si>
   <si>
-    <t>GSUC_01_01</t>
-  </si>
-  <si>
     <t>Digital Twin Federation Integration</t>
   </si>
   <si>
@@ -2594,9 +2477,6 @@
     <t>GSUC 1</t>
   </si>
   <si>
-    <t>GSUC_01_02</t>
-  </si>
-  <si>
     <t>Bidirectional Data Exchange for Physical and Virtual Entities</t>
   </si>
   <si>
@@ -2604,9 +2484,6 @@
 virtual entities.</t>
   </si>
   <si>
-    <t>GSUC_01_03</t>
-  </si>
-  <si>
     <t>Seamless Interoperability Across Digital Twins</t>
   </si>
   <si>
@@ -2614,9 +2491,6 @@
 Digital Twins, regardless of their underlying data structures and models.</t>
   </si>
   <si>
-    <t>GSUC_01_04</t>
-  </si>
-  <si>
     <t>Secure Digital Twin Data Exchange via Data Space Connector</t>
   </si>
   <si>
@@ -2624,9 +2498,6 @@
 controlled data sharing between Digital Twins.</t>
   </si>
   <si>
-    <t>GSUC_01_05</t>
-  </si>
-  <si>
     <t>Scalable Federated Computing Architecture Support</t>
   </si>
   <si>
@@ -2634,9 +2505,6 @@
 architectures to enhance scalability.</t>
   </si>
   <si>
-    <t>GSUC_01_06</t>
-  </si>
-  <si>
     <t>Federated Digital Twin Data Space Orchestration</t>
   </si>
   <si>
@@ -2644,9 +2512,6 @@
 data sharing, model exchange, and real-world data integration across Digital Twin clusters.</t>
   </si>
   <si>
-    <t>GSUC_01_07</t>
-  </si>
-  <si>
     <t>Regulatory-Compliant Data Exchange Governance</t>
   </si>
   <si>
@@ -2654,12 +2519,6 @@
 policies and regulatory compliance requirements.</t>
   </si>
   <si>
-    <t>GSUC_01_08</t>
-  </si>
-  <si>
-    <t>GSUC_01_09</t>
-  </si>
-  <si>
     <t>Service Orchestration</t>
   </si>
   <si>
@@ -2667,19 +2526,10 @@
 users to define and manage workflows.</t>
   </si>
   <si>
-    <t>GSUC_01_10</t>
-  </si>
-  <si>
-    <t>GSUC_01_11</t>
-  </si>
-  <si>
     <t>Data versioning and traceability</t>
   </si>
   <si>
     <t>General functionality, probably common to several GSUCs, more or less modified</t>
-  </si>
-  <si>
-    <t>GSUC_01_12</t>
   </si>
   <si>
     <t>Role-Based Access Control for Secure Data Exchange</t>
@@ -2689,16 +2539,10 @@
 exchange, ensuring that only authorized entities can access or modify data.</t>
   </si>
   <si>
-    <t>GSUC_01_13</t>
-  </si>
-  <si>
     <t>Error-handling mechanism</t>
   </si>
   <si>
     <t>General functionality, probably common to several GSUCs, more or less modified. More of the FUR than NFUR</t>
-  </si>
-  <si>
-    <t>GSUC_01_14</t>
   </si>
   <si>
     <t>Identity management</t>
@@ -2708,9 +2552,6 @@
 authenticate and authorize Digital Twin actors.</t>
   </si>
   <si>
-    <t>GSUC_01_15</t>
-  </si>
-  <si>
     <t>Governance model</t>
   </si>
   <si>
@@ -2718,20 +2559,11 @@
 and security policies across the Digital Twin Federation.</t>
   </si>
   <si>
-    <t>GSUC_01_16</t>
-  </si>
-  <si>
-    <t>GSUC_01_17</t>
-  </si>
-  <si>
     <t>Policy-driven optimizations</t>
   </si>
   <si>
     <t>The system should allow policy-driven optimizations to ensure regulatory 
 compliance and efficient energy market operations.</t>
-  </si>
-  <si>
-    <t>GSUC_01_18</t>
   </si>
   <si>
     <t>Enforced Data Retention Policy for Sensor Data</t>
@@ -2954,60 +2786,6 @@
     <t>AI-Driven Big Data and IoT Data Orchestration and Marketplace for Cross-Platform Digital Twin Services</t>
   </si>
   <si>
-    <t>GSUC_03_05</t>
-  </si>
-  <si>
-    <t>GSUC_03_06</t>
-  </si>
-  <si>
-    <t>GSUC_03_07</t>
-  </si>
-  <si>
-    <t>GSUC_03_08</t>
-  </si>
-  <si>
-    <t>GSUC_03_09</t>
-  </si>
-  <si>
-    <t>GSUC_03_10</t>
-  </si>
-  <si>
-    <t>GSUC_03_11</t>
-  </si>
-  <si>
-    <t>GSUC_03_12</t>
-  </si>
-  <si>
-    <t>GSUC_03_13</t>
-  </si>
-  <si>
-    <t>GSUC_03_14</t>
-  </si>
-  <si>
-    <t>GSUC_03_15</t>
-  </si>
-  <si>
-    <t>GSUC_03_16</t>
-  </si>
-  <si>
-    <t>GSUC_03_17</t>
-  </si>
-  <si>
-    <t>GSUC_03_18</t>
-  </si>
-  <si>
-    <t>GSUC_03_19</t>
-  </si>
-  <si>
-    <t>GSUC_03_20</t>
-  </si>
-  <si>
-    <t>GSUC_03_21</t>
-  </si>
-  <si>
-    <t>GSUC_03_22</t>
-  </si>
-  <si>
     <t>The Participant must be able to search and discover other TwinEU Participants</t>
   </si>
   <si>
@@ -3134,8 +2912,245 @@
     <t xml:space="preserve">The system will not provide detailed edge device control </t>
   </si>
   <si>
-    <t>OneNet_FUR_08
-GSUC_02_04</t>
+    <t>The Data Space connector must be able to send metadata of a data source to 
+one or more system components</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_01</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_02</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_03</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_04</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_05</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_06</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_07</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_08</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_09</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_10</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_11</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_12</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_13</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_14</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_15</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_16</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_17</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_18</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_19</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_20</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_21</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_22</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_23</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_24</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_25</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_26</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_27</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_28</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_29</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_30</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_31</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_32</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_33</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_34</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_35</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_36</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_37</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_38</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_39</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_40</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_41</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_42</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_43</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_44</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_45</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_46</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_47</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_48</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_49</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_50</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_51</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_52</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_53</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_54</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_55</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_56</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_57</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_58</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_59</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_60</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_61</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_62</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_63</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_64</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_65</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_66</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_67</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_68</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_69</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_70</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_71</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_72</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_73</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_74</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_75</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_76</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_77</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_78</t>
+  </si>
+  <si>
+    <t>TwinEU_GFUR_80</t>
   </si>
 </sst>
 </file>
@@ -3719,6 +3734,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -3779,20 +3796,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3821,16 +3838,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4823,8 +4838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC003000-FB54-4FFF-B2DC-1A9F50DA1C00}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:D47"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4860,7 +4875,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -4868,31 +4883,31 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A7" s="51"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="52"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="135" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="52" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -4900,23 +4915,23 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="51"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="75.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="51"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="52"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -4924,37 +4939,37 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="51"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="51"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="51"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="51"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="52"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -4962,57 +4977,57 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="51"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="51"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="51"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="51"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="51"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="51"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="51"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="51"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="51"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="52"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="4" t="s">
         <v>31</v>
       </c>
@@ -5024,9 +5039,9 @@
       <c r="B30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
@@ -5064,13 +5079,13 @@
     </row>
     <row r="37" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>4</v>
@@ -5080,13 +5095,13 @@
     </row>
     <row r="38" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>4</v>
@@ -5096,13 +5111,13 @@
     </row>
     <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>48</v>
+        <v>470</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>4</v>
@@ -5112,13 +5127,13 @@
     </row>
     <row r="40" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>51</v>
+        <v>471</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>462</v>
+        <v>388</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>4</v>
@@ -5128,13 +5143,13 @@
     </row>
     <row r="41" spans="1:6" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>53</v>
+        <v>472</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>4</v>
@@ -5144,109 +5159,105 @@
     </row>
     <row r="42" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>56</v>
+        <v>473</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="24" t="s">
-        <v>4</v>
-      </c>
+    <row r="43" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9"/>
       <c r="B43" s="24" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="24" t="s">
-        <v>4</v>
-      </c>
+    <row r="44" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="9"/>
       <c r="B44" s="24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:6" ht="77.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
-        <v>65</v>
+        <v>474</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:6" ht="93.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="24" t="s">
-        <v>4</v>
+      <c r="A46" s="9" t="s">
+        <v>476</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>70</v>
+        <v>475</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>470</v>
+        <v>396</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F47" s="9"/>
     </row>
@@ -5254,9 +5265,7 @@
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
     </row>
@@ -5384,7 +5393,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView topLeftCell="A32" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:D39"/>
+      <selection activeCell="A30" sqref="A30:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5402,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5416,63 +5425,63 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="59"/>
+      <c r="B5" s="36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="59"/>
+      <c r="B6" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="59"/>
+      <c r="B7" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="59"/>
+      <c r="B8" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="59"/>
+      <c r="B9" s="36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="59"/>
+      <c r="B10" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="59"/>
+      <c r="B11" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="36" t="s">
+    <row r="12" spans="1:2" ht="270.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="59"/>
+      <c r="B12" s="35" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="57"/>
-      <c r="B5" s="36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="57"/>
-      <c r="B6" s="36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="57"/>
-      <c r="B7" s="36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="57"/>
-      <c r="B8" s="36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="57"/>
-      <c r="B9" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="57"/>
-      <c r="B10" s="36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="57"/>
-      <c r="B11" s="37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="270.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="57"/>
-      <c r="B12" s="35" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5480,39 +5489,39 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="51"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="51"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="51"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="52"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5520,27 +5529,27 @@
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="55" t="s">
-        <v>90</v>
+      <c r="B20" s="57" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="52"/>
-      <c r="B21" s="56"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="58"/>
     </row>
     <row r="22" spans="1:6" ht="213" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
+        <v>83</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
@@ -5548,7 +5557,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -5578,165 +5587,165 @@
     </row>
     <row r="30" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>93</v>
+        <v>458</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>96</v>
+        <v>459</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>99</v>
+        <v>460</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>102</v>
+        <v>461</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>105</v>
+        <v>462</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>108</v>
+        <v>463</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>111</v>
+        <v>464</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>114</v>
+        <v>465</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>117</v>
+        <v>466</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>120</v>
+        <v>467</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F39" s="9"/>
     </row>
@@ -5901,8 +5910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3469DBBC-245C-46EC-B045-D1219230D97E}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="A26:D35"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5920,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5928,45 +5937,45 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="28"/>
       <c r="B3" s="41" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="11" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="6" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="51"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="11" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="52"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="4" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="119.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5974,70 +5983,70 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="6" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="51"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="11" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="51"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="6" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="55" t="s">
-        <v>137</v>
+      <c r="B15" s="57" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="52"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="58"/>
     </row>
     <row r="17" spans="1:6" ht="250.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
+        <v>120</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
     </row>
     <row r="18" spans="1:6" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -6067,167 +6076,167 @@
     </row>
     <row r="26" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>142</v>
+        <v>448</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>145</v>
+        <v>449</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>148</v>
+        <v>450</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>151</v>
+        <v>451</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>154</v>
+        <v>452</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>155</v>
+        <v>453</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>158</v>
+        <v>454</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>161</v>
+        <v>455</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>164</v>
+        <v>456</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>166</v>
+        <v>457</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F35" s="9"/>
     </row>
@@ -6407,13 +6416,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE5E361-40B1-45B5-967B-5DCD2C6BD99A}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="103" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A44" zoomScale="103" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
     <col min="2" max="2" width="96.26953125" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="67.7265625" customWidth="1"/>
@@ -6427,13 +6436,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6441,13 +6450,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="142.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6455,13 +6464,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="215.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6469,175 +6478,175 @@
         <v>11</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="62" t="s">
-        <v>176</v>
+      <c r="D5" s="64" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="63"/>
+        <v>149</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="65"/>
     </row>
     <row r="7" spans="1:4" ht="76" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="51"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="63"/>
+        <v>150</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="65"/>
     </row>
     <row r="8" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="51"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="63"/>
+        <v>151</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:4" ht="62.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="51"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="63"/>
+        <v>152</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="51"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="63"/>
+        <v>153</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="63"/>
+        <v>154</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="65"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="51"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="63"/>
+        <v>155</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="65"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="52"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="64"/>
+        <v>156</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="66"/>
     </row>
     <row r="14" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="52" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="51"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="51"/>
+        <v>158</v>
+      </c>
+      <c r="C15" s="53"/>
       <c r="D15" s="31" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="51"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="51"/>
+        <v>159</v>
+      </c>
+      <c r="C16" s="53"/>
       <c r="D16" s="31" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="107.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="51"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="51"/>
+        <v>160</v>
+      </c>
+      <c r="C17" s="53"/>
       <c r="D17" s="31" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="C18" s="51"/>
+        <v>161</v>
+      </c>
+      <c r="C18" s="53"/>
       <c r="D18" s="47" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="51"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="51"/>
+        <v>162</v>
+      </c>
+      <c r="C19" s="53"/>
       <c r="D19" s="31" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="51"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="51"/>
+        <v>163</v>
+      </c>
+      <c r="C20" s="53"/>
       <c r="D20" s="31" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="52"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="52"/>
+        <v>164</v>
+      </c>
+      <c r="C21" s="54"/>
       <c r="D21" s="29" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="350.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6645,20 +6654,20 @@
         <v>32</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="291.64999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
     </row>
     <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -6694,345 +6703,345 @@
     </row>
     <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>450</v>
+        <v>376</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D33" s="60" t="s">
-        <v>451</v>
+        <v>173</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>377</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" s="61"/>
+        <v>174</v>
+      </c>
+      <c r="D34" s="63"/>
       <c r="E34" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D35" s="61"/>
+        <v>176</v>
+      </c>
+      <c r="D35" s="63"/>
       <c r="E35" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>463</v>
+        <v>389</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" s="58" t="s">
-        <v>469</v>
+        <v>184</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>395</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D39" s="59"/>
+        <v>185</v>
+      </c>
+      <c r="D39" s="61"/>
       <c r="E39" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>449</v>
+        <v>375</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D40" s="59"/>
+        <v>187</v>
+      </c>
+      <c r="D40" s="61"/>
       <c r="E40" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D42" s="58" t="s">
-        <v>221</v>
+        <v>191</v>
+      </c>
+      <c r="D42" s="60" t="s">
+        <v>193</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D43" s="59"/>
+        <v>194</v>
+      </c>
+      <c r="D43" s="61"/>
       <c r="E43" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D44" s="58" t="s">
-        <v>226</v>
+        <v>196</v>
+      </c>
+      <c r="D44" s="60" t="s">
+        <v>198</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D45" s="59"/>
+        <v>199</v>
+      </c>
+      <c r="D45" s="61"/>
       <c r="E45" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D46" s="59"/>
+        <v>201</v>
+      </c>
+      <c r="D46" s="61"/>
       <c r="E46" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D47" s="59"/>
+        <v>203</v>
+      </c>
+      <c r="D47" s="61"/>
       <c r="E47" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:8" s="14" customFormat="1" ht="29.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="44" t="s">
-        <v>236</v>
+      <c r="A49" s="9" t="s">
+        <v>416</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -7040,76 +7049,76 @@
     </row>
     <row r="50" spans="1:8" ht="53.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>240</v>
+        <v>444</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>243</v>
+        <v>445</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>246</v>
+        <v>446</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>249</v>
+        <v>447</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
@@ -7164,8 +7173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B23138-3F87-4CCB-88D6-CA26FB5E21BA}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7183,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7197,249 +7206,249 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="56.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="6" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="44.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="6" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="51"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="6" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="51"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="6" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="51"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="6" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="51"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="6" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="52"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="4" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="149.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="52" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="51"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="16"/>
     </row>
     <row r="14" spans="1:2" ht="111" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="51"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="6" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="51"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2" ht="109" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="51"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="6" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="51"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2" ht="71.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="52"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="4" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="51"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="6" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="51"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="6" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="51"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="6" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="51"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="6" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="51"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="6" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="51"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="6" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="51"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="6" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="51"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="6" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="51"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="6" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="51"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="6" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="52"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="4" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="51"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="6" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="51"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="51"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="6" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="51"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="6" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="51"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="6" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="51"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="6" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="51"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="6" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="51"/>
+      <c r="A39" s="53"/>
       <c r="B39" s="6" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="51"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="6" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="51"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="6" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="51"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="6" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="52"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="4" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -7447,11 +7456,11 @@
         <v>32</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
+        <v>262</v>
+      </c>
+      <c r="C44" s="67"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
@@ -7478,422 +7487,422 @@
     </row>
     <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
-        <v>471</v>
+        <v>398</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>198</v>
+      <c r="A50" s="13" t="s">
+        <v>399</v>
       </c>
       <c r="B50" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>201</v>
+      <c r="A51" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="B51" t="s">
-        <v>292</v>
-      </c>
-      <c r="C51" s="70" t="s">
-        <v>293</v>
+        <v>264</v>
+      </c>
+      <c r="C51" s="75" t="s">
+        <v>265</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
     <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>202</v>
+      <c r="A52" s="13" t="s">
+        <v>401</v>
       </c>
       <c r="B52" t="s">
-        <v>203</v>
-      </c>
-      <c r="C52" s="71"/>
+        <v>175</v>
+      </c>
+      <c r="C52" s="76"/>
       <c r="D52" s="13" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>204</v>
+      <c r="A53" s="13" t="s">
+        <v>402</v>
       </c>
       <c r="B53" t="s">
-        <v>205</v>
-      </c>
-      <c r="C53" s="71"/>
+        <v>177</v>
+      </c>
+      <c r="C53" s="76"/>
       <c r="D53" s="13" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
     <row r="54" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>206</v>
+      <c r="A54" s="13" t="s">
+        <v>403</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>209</v>
+      <c r="A55" s="13" t="s">
+        <v>404</v>
       </c>
       <c r="B55" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>212</v>
+      <c r="A56" s="13" t="s">
+        <v>405</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="C56" s="68" t="s">
-        <v>466</v>
+        <v>397</v>
+      </c>
+      <c r="C56" s="70" t="s">
+        <v>392</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>213</v>
+      <c r="A57" s="13" t="s">
+        <v>406</v>
       </c>
       <c r="B57" t="s">
-        <v>448</v>
-      </c>
-      <c r="C57" s="69"/>
+        <v>374</v>
+      </c>
+      <c r="C57" s="71"/>
       <c r="D57" s="13" t="s">
-        <v>467</v>
+        <v>393</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="1:6" s="84" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>215</v>
+    <row r="58" spans="1:6" s="50" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="13" t="s">
+        <v>407</v>
       </c>
       <c r="B58" t="s">
-        <v>465</v>
-      </c>
-      <c r="C58" s="69"/>
+        <v>391</v>
+      </c>
+      <c r="C58" s="71"/>
       <c r="D58" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
+        <v>390</v>
+      </c>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
     </row>
     <row r="59" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>216</v>
+      <c r="A59" s="13" t="s">
+        <v>408</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>219</v>
+      <c r="A60" s="13" t="s">
+        <v>409</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C60" s="68" t="s">
-        <v>221</v>
+        <v>192</v>
+      </c>
+      <c r="C60" s="70" t="s">
+        <v>193</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>222</v>
+      <c r="A61" s="13" t="s">
+        <v>410</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C61" s="69"/>
+        <v>195</v>
+      </c>
+      <c r="C61" s="71"/>
       <c r="D61" s="13" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>224</v>
+      <c r="A62" s="13" t="s">
+        <v>411</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C62" s="68" t="s">
-        <v>226</v>
+        <v>197</v>
+      </c>
+      <c r="C62" s="70" t="s">
+        <v>198</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
     </row>
     <row r="63" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>227</v>
+      <c r="A63" s="13" t="s">
+        <v>412</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C63" s="69"/>
+        <v>200</v>
+      </c>
+      <c r="C63" s="71"/>
       <c r="D63" s="13" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
     </row>
     <row r="64" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>229</v>
+      <c r="A64" s="13" t="s">
+        <v>413</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C64" s="69"/>
+        <v>202</v>
+      </c>
+      <c r="C64" s="71"/>
       <c r="D64" s="13" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
     </row>
     <row r="65" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>231</v>
+      <c r="A65" s="13" t="s">
+        <v>414</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="C65" s="69"/>
+        <v>204</v>
+      </c>
+      <c r="C65" s="71"/>
       <c r="D65" s="13" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
     </row>
     <row r="66" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>233</v>
+      <c r="A66" s="13" t="s">
+        <v>415</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A67" s="9" t="s">
-        <v>294</v>
+      <c r="A67" s="13" t="s">
+        <v>416</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C67" s="86" t="s">
-        <v>468</v>
+        <v>266</v>
+      </c>
+      <c r="C67" s="72" t="s">
+        <v>394</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
     </row>
     <row r="68" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="9" t="s">
-        <v>297</v>
+      <c r="A68" s="13" t="s">
+        <v>417</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C68" s="87"/>
+        <v>268</v>
+      </c>
+      <c r="C68" s="73"/>
       <c r="D68" s="9" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
     </row>
     <row r="69" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="9" t="s">
-        <v>299</v>
+      <c r="A69" s="13" t="s">
+        <v>418</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="C69" s="87"/>
+        <v>269</v>
+      </c>
+      <c r="C69" s="73"/>
       <c r="D69" s="9" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
     <row r="70" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="9" t="s">
-        <v>301</v>
+      <c r="A70" s="13" t="s">
+        <v>419</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C70" s="87"/>
+        <v>270</v>
+      </c>
+      <c r="C70" s="73"/>
       <c r="D70" s="9" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
     </row>
     <row r="71" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="9" t="s">
-        <v>303</v>
+      <c r="A71" s="13" t="s">
+        <v>420</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C71" s="87"/>
+        <v>271</v>
+      </c>
+      <c r="C71" s="73"/>
       <c r="D71" s="9" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
     </row>
     <row r="72" spans="1:6" ht="54.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="9" t="s">
-        <v>305</v>
+      <c r="A72" s="13" t="s">
+        <v>421</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="C72" s="88"/>
+        <v>272</v>
+      </c>
+      <c r="C72" s="74"/>
       <c r="D72" s="9" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
     </row>
     <row r="73" spans="1:6" s="19" customFormat="1" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="14" t="s">
-        <v>307</v>
+      <c r="A73" s="13" t="s">
+        <v>422</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="9"/>
     </row>
     <row r="74" spans="1:6" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="17" t="s">
-        <v>310</v>
+        <v>441</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="E74" s="17"/>
       <c r="F74" s="9"/>
     </row>
     <row r="75" spans="1:6" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="17" t="s">
-        <v>313</v>
+        <v>442</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
     </row>
     <row r="76" spans="1:6" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="17" t="s">
-        <v>316</v>
+        <v>443</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
@@ -8112,8 +8121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2398114-9418-412C-B027-E4F421BC2ADA}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D71" sqref="A54:D71"/>
+    <sheetView topLeftCell="A62" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8131,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8139,7 +8148,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8149,273 +8158,273 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="53"/>
+      <c r="B5" s="21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="53"/>
+      <c r="B6" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="53"/>
+      <c r="B7" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="53"/>
+      <c r="B8" s="21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="53"/>
+      <c r="B9" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="41.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="53"/>
+      <c r="B10" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="53"/>
+      <c r="B11" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="53"/>
+      <c r="B12" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="53"/>
+      <c r="B13" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="69.650000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="54"/>
+      <c r="B14" s="34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="180.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="53"/>
+      <c r="B16" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="53"/>
+      <c r="B17" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="53"/>
+      <c r="B18" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="53"/>
+      <c r="B19" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="53"/>
+      <c r="B20" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="53"/>
+      <c r="B21" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="50" x14ac:dyDescent="0.35">
+      <c r="A22" s="53"/>
+      <c r="B22" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="54"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="53"/>
+      <c r="B25" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="53"/>
+      <c r="B26" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="53"/>
+      <c r="B27" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="53"/>
+      <c r="B28" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="50" x14ac:dyDescent="0.35">
+      <c r="A29" s="53"/>
+      <c r="B29" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="54"/>
+      <c r="B30" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="53"/>
+      <c r="B32" s="21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="53"/>
+      <c r="B33" s="21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="53"/>
+      <c r="B34" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="53"/>
+      <c r="B35" s="21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="53"/>
+      <c r="B36" s="21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="53"/>
+      <c r="B37" s="21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="53"/>
+      <c r="B38" s="21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="53"/>
+      <c r="B39" s="21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="53"/>
+      <c r="B40" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="53"/>
+      <c r="B41" s="21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="53"/>
+      <c r="B42" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="53"/>
+      <c r="B43" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="21" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
-      <c r="B6" s="21" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="51"/>
-      <c r="B7" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="51"/>
-      <c r="B8" s="21" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="51"/>
-      <c r="B9" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="41.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="51"/>
-      <c r="B10" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51"/>
-      <c r="B11" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="51"/>
-      <c r="B12" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="51"/>
-      <c r="B13" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="69.650000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52"/>
-      <c r="B14" s="34" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="180.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="51"/>
-      <c r="B16" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="51"/>
-      <c r="B17" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
-      <c r="B18" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="51"/>
-      <c r="B19" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="51"/>
-      <c r="B20" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="51"/>
-      <c r="B21" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="50" x14ac:dyDescent="0.35">
-      <c r="A22" s="51"/>
-      <c r="B22" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="52"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="51"/>
-      <c r="B25" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="51"/>
-      <c r="B26" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="51"/>
-      <c r="B27" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="51"/>
-      <c r="B28" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="50" x14ac:dyDescent="0.35">
-      <c r="A29" s="51"/>
-      <c r="B29" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="52"/>
-      <c r="B30" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="51"/>
-      <c r="B32" s="21" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="51"/>
-      <c r="B33" s="21" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="51"/>
-      <c r="B34" s="12" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="51"/>
-      <c r="B35" s="21" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="51"/>
-      <c r="B36" s="21" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="51"/>
-      <c r="B37" s="21" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="51"/>
-      <c r="B38" s="21" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="51"/>
-      <c r="B39" s="21" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="51"/>
-      <c r="B40" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="51"/>
-      <c r="B41" s="21" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="51"/>
-      <c r="B42" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="51"/>
-      <c r="B43" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="51"/>
+      <c r="A44" s="53"/>
       <c r="B44" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="51"/>
+      <c r="A45" s="53"/>
       <c r="B45" s="6" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="51"/>
+      <c r="A46" s="53"/>
       <c r="B46" s="6" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="38.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="52"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="4" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -8423,11 +8432,11 @@
         <v>32</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
+        <v>325</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
     </row>
     <row r="49" spans="1:6" ht="65.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
@@ -8464,305 +8473,305 @@
     </row>
     <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
-        <v>364</v>
+        <v>423</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
-        <v>368</v>
+        <v>424</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="23" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="23" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>457</v>
+        <v>383</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>456</v>
+        <v>382</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="23" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
     </row>
     <row r="63" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="23" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>458</v>
+        <v>384</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
     </row>
     <row r="64" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="23" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>452</v>
+        <v>378</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="F64" s="9"/>
     </row>
     <row r="65" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="23" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="F65" s="9"/>
     </row>
     <row r="66" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="23" t="s">
-        <v>397</v>
+        <v>435</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>455</v>
+        <v>381</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="F67" s="9"/>
     </row>
     <row r="68" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="23" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="F68" s="9"/>
     </row>
     <row r="69" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>454</v>
+        <v>380</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>453</v>
+        <v>379</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="F69" s="9"/>
     </row>
     <row r="70" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>408</v>
+        <v>353</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="F70" s="9"/>
     </row>
     <row r="71" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>413</v>
+        <v>357</v>
       </c>
       <c r="F71" s="9"/>
     </row>
@@ -8890,8 +8899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC4A7E8-5452-441C-BD86-BF5C1C59E8F6}">
   <dimension ref="A1:D341"/>
   <sheetViews>
-    <sheetView topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B491" sqref="B491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8905,7 +8914,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8913,207 +8922,207 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="75" t="s">
-        <v>415</v>
+      <c r="B3" s="77" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="82"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="78"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="82"/>
-      <c r="B5" s="76"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="78"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="82"/>
-      <c r="B6" s="76"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="78"/>
     </row>
     <row r="7" spans="1:2" ht="177" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="82"/>
-      <c r="B7" s="76"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="78"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="82"/>
-      <c r="B8" s="76"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="78"/>
     </row>
     <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="82"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="78"/>
     </row>
     <row r="10" spans="1:2" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="82"/>
-      <c r="B10" s="76"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="78"/>
     </row>
     <row r="11" spans="1:2" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="82"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="78"/>
     </row>
     <row r="12" spans="1:2" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="82"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="78"/>
     </row>
     <row r="13" spans="1:2" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="83"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="79"/>
     </row>
     <row r="14" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="75" t="s">
-        <v>416</v>
+      <c r="B14" s="77" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="51"/>
-      <c r="B15" s="76"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="78"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="51"/>
-      <c r="B16" s="76"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="78"/>
     </row>
     <row r="17" spans="1:2" ht="175" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="51"/>
-      <c r="B17" s="76"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="78"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="78"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="51"/>
-      <c r="B19" s="76"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="78"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="51"/>
-      <c r="B20" s="76"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="78"/>
     </row>
     <row r="21" spans="1:2" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="51"/>
-      <c r="B21" s="76"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="78"/>
     </row>
     <row r="22" spans="1:2" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="52"/>
-      <c r="B22" s="77"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="79"/>
     </row>
     <row r="23" spans="1:2" ht="123.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="75" t="s">
-        <v>417</v>
+      <c r="B23" s="77" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="51"/>
-      <c r="B24" s="76"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="78"/>
     </row>
     <row r="25" spans="1:2" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="51"/>
-      <c r="B25" s="76"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="78"/>
     </row>
     <row r="26" spans="1:2" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="51"/>
-      <c r="B26" s="76"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="78"/>
     </row>
     <row r="27" spans="1:2" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="51"/>
-      <c r="B27" s="76"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="78"/>
     </row>
     <row r="28" spans="1:2" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="51"/>
-      <c r="B28" s="76"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="78"/>
     </row>
     <row r="29" spans="1:2" ht="1.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="52"/>
-      <c r="B29" s="77"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="79"/>
     </row>
     <row r="30" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="78" t="s">
-        <v>418</v>
+      <c r="B30" s="80" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="51"/>
-      <c r="B31" s="79"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="81"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="51"/>
-      <c r="B32" s="79"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="81"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="51"/>
-      <c r="B33" s="79"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="81"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="51"/>
-      <c r="B34" s="79"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="81"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="51"/>
-      <c r="B35" s="79"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="81"/>
     </row>
     <row r="36" spans="1:2" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="51"/>
-      <c r="B36" s="79"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="81"/>
     </row>
     <row r="37" spans="1:2" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="51"/>
-      <c r="B37" s="79"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="81"/>
     </row>
     <row r="38" spans="1:2" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="51"/>
-      <c r="B38" s="79"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="81"/>
     </row>
     <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="51"/>
-      <c r="B39" s="79"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="81"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="51"/>
-      <c r="B40" s="79"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="81"/>
     </row>
     <row r="41" spans="1:2" ht="2.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="51"/>
-      <c r="B41" s="79"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="81"/>
     </row>
     <row r="42" spans="1:2" ht="9.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="51"/>
-      <c r="B42" s="79"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="81"/>
     </row>
     <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="51"/>
-      <c r="B43" s="79"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="81"/>
     </row>
     <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="51"/>
-      <c r="B44" s="79"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="81"/>
     </row>
     <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="51"/>
-      <c r="B45" s="79"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="81"/>
     </row>
     <row r="46" spans="1:2" ht="9.65" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="52"/>
-      <c r="B46" s="80"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="82"/>
     </row>
     <row r="47" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -9122,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>429</v>
+        <v>373</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9130,250 +9139,250 @@
         <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="50" t="s">
+      <c r="A76" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="51"/>
+      <c r="A77" s="53"/>
       <c r="B77" s="6" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A78" s="51"/>
+      <c r="A78" s="53"/>
       <c r="B78" s="6" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A79" s="51"/>
+      <c r="A79" s="53"/>
       <c r="B79" s="6" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A80" s="51"/>
+      <c r="A80" s="53"/>
       <c r="B80" s="6" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A81" s="51"/>
+      <c r="A81" s="53"/>
       <c r="B81" s="6" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A82" s="51"/>
+      <c r="A82" s="53"/>
       <c r="B82" s="6" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="52"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="4" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="100" x14ac:dyDescent="0.35">
-      <c r="A84" s="50" t="s">
+      <c r="A84" s="52" t="s">
         <v>11</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>420</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="51"/>
+      <c r="A85" s="53"/>
       <c r="B85" s="16"/>
     </row>
     <row r="86" spans="1:4" ht="75" x14ac:dyDescent="0.35">
-      <c r="A86" s="51"/>
+      <c r="A86" s="53"/>
       <c r="B86" s="6" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="51"/>
+      <c r="A87" s="53"/>
       <c r="B87" s="6"/>
     </row>
     <row r="88" spans="1:4" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="51"/>
+      <c r="A88" s="53"/>
       <c r="B88" s="6" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="D88" s="46"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="51"/>
+      <c r="A89" s="53"/>
       <c r="B89" s="6"/>
     </row>
     <row r="90" spans="1:4" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="52"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="4" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="50" t="s">
+      <c r="A91" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>421</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A92" s="51"/>
+      <c r="A92" s="53"/>
       <c r="B92" s="6" t="s">
-        <v>422</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A93" s="51"/>
+      <c r="A93" s="53"/>
       <c r="B93" s="6" t="s">
-        <v>423</v>
+        <v>367</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="51"/>
+      <c r="A94" s="53"/>
       <c r="B94" s="6" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A95" s="51"/>
+      <c r="A95" s="53"/>
       <c r="B95" s="6" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A96" s="51"/>
+      <c r="A96" s="53"/>
       <c r="B96" s="6" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A97" s="51"/>
+      <c r="A97" s="53"/>
       <c r="B97" s="6" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A98" s="51"/>
+      <c r="A98" s="53"/>
       <c r="B98" s="6" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A99" s="51"/>
+      <c r="A99" s="53"/>
       <c r="B99" s="6" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A100" s="51"/>
+      <c r="A100" s="53"/>
       <c r="B100" s="6" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A101" s="51"/>
+      <c r="A101" s="53"/>
       <c r="B101" s="6" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="52"/>
+      <c r="A102" s="54"/>
       <c r="B102" s="4" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="50" t="s">
+      <c r="A103" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="51"/>
+      <c r="A104" s="53"/>
       <c r="B104" s="6" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="51"/>
+      <c r="A105" s="53"/>
       <c r="B105" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="51"/>
+      <c r="A106" s="53"/>
       <c r="B106" s="6" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="51"/>
+      <c r="A107" s="53"/>
       <c r="B107" s="6" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="51"/>
+      <c r="A108" s="53"/>
       <c r="B108" s="6" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="51"/>
+      <c r="A109" s="53"/>
       <c r="B109" s="6" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="51"/>
+      <c r="A110" s="53"/>
       <c r="B110" s="6" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="51"/>
+      <c r="A111" s="53"/>
       <c r="B111" s="6" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="51"/>
+      <c r="A112" s="53"/>
       <c r="B112" s="6" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="51"/>
+      <c r="A113" s="53"/>
       <c r="B113" s="6" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="51"/>
+      <c r="A114" s="53"/>
       <c r="B114" s="6" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="52"/>
+      <c r="A115" s="54"/>
       <c r="B115" s="4" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -9381,7 +9390,7 @@
         <v>32</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -9390,7 +9399,7 @@
         <v>0</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9398,7 +9407,7 @@
         <v>3</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="102" thickBot="1" x14ac:dyDescent="0.4">
@@ -9406,7 +9415,7 @@
         <v>5</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="160" thickBot="1" x14ac:dyDescent="0.4">
@@ -9414,97 +9423,97 @@
         <v>11</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>424</v>
+        <v>368</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="50" t="s">
+      <c r="A150" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B150" s="62" t="s">
-        <v>176</v>
+      <c r="B150" s="64" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="51"/>
-      <c r="B151" s="63"/>
+      <c r="A151" s="53"/>
+      <c r="B151" s="65"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="51"/>
-      <c r="B152" s="63"/>
+      <c r="A152" s="53"/>
+      <c r="B152" s="65"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="51"/>
-      <c r="B153" s="63"/>
+      <c r="A153" s="53"/>
+      <c r="B153" s="65"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="51"/>
-      <c r="B154" s="63"/>
+      <c r="A154" s="53"/>
+      <c r="B154" s="65"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="51"/>
-      <c r="B155" s="63"/>
+      <c r="A155" s="53"/>
+      <c r="B155" s="65"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="51"/>
-      <c r="B156" s="63"/>
+      <c r="A156" s="53"/>
+      <c r="B156" s="65"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="51"/>
-      <c r="B157" s="63"/>
+      <c r="A157" s="53"/>
+      <c r="B157" s="65"/>
     </row>
     <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="52"/>
-      <c r="B158" s="64"/>
+      <c r="A158" s="54"/>
+      <c r="B158" s="66"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="50" t="s">
+      <c r="A159" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B159" s="47" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="51"/>
+      <c r="A160" s="53"/>
       <c r="B160" s="31" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="51"/>
+      <c r="A161" s="53"/>
       <c r="B161" s="31" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A162" s="51"/>
+      <c r="A162" s="53"/>
       <c r="B162" s="31" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="51"/>
+      <c r="A163" s="53"/>
       <c r="B163" s="47" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="51"/>
+      <c r="A164" s="53"/>
       <c r="B164" s="31" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="51"/>
+      <c r="A165" s="53"/>
       <c r="B165" s="31" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="52"/>
+      <c r="A166" s="54"/>
       <c r="B166" s="29" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="319.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -9512,7 +9521,7 @@
         <v>32</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -9521,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9529,39 +9538,39 @@
         <v>3</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" s="50" t="s">
+      <c r="A194" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A195" s="51"/>
+      <c r="A195" s="53"/>
       <c r="B195" s="11" t="s">
-        <v>425</v>
+        <v>369</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A196" s="51"/>
+      <c r="A196" s="53"/>
       <c r="B196" s="6" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A197" s="51"/>
+      <c r="A197" s="53"/>
       <c r="B197" s="11" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="52"/>
+      <c r="A198" s="54"/>
       <c r="B198" s="4" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.4">
@@ -9569,57 +9578,57 @@
         <v>11</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="50" t="s">
+      <c r="A200" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201" s="51"/>
+      <c r="A201" s="53"/>
       <c r="B201" s="6" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A202" s="51"/>
+      <c r="A202" s="53"/>
       <c r="B202" s="11" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A203" s="51"/>
+      <c r="A203" s="53"/>
       <c r="B203" s="11" t="s">
-        <v>426</v>
+        <v>370</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="52"/>
+      <c r="A204" s="54"/>
       <c r="B204" s="4"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205" s="50" t="s">
+      <c r="A205" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B205" s="55" t="s">
-        <v>137</v>
+      <c r="B205" s="57" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="52"/>
-      <c r="B206" s="56"/>
+      <c r="A206" s="54"/>
+      <c r="B206" s="58"/>
     </row>
     <row r="207" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="3" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D207" s="48"/>
     </row>
@@ -9629,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9637,107 +9646,107 @@
         <v>3</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="57" t="s">
+      <c r="A230" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B230" s="72" t="s">
-        <v>83</v>
+      <c r="B230" s="86" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A231" s="57"/>
-      <c r="B231" s="73"/>
+      <c r="A231" s="59"/>
+      <c r="B231" s="87"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A232" s="57"/>
-      <c r="B232" s="73"/>
+      <c r="A232" s="59"/>
+      <c r="B232" s="87"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" s="57"/>
-      <c r="B233" s="73"/>
+      <c r="A233" s="59"/>
+      <c r="B233" s="87"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" s="57"/>
-      <c r="B234" s="73"/>
+      <c r="A234" s="59"/>
+      <c r="B234" s="87"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" s="57"/>
-      <c r="B235" s="73"/>
+      <c r="A235" s="59"/>
+      <c r="B235" s="87"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A236" s="57"/>
-      <c r="B236" s="73"/>
+      <c r="A236" s="59"/>
+      <c r="B236" s="87"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" s="57"/>
-      <c r="B237" s="73"/>
+      <c r="A237" s="59"/>
+      <c r="B237" s="87"/>
     </row>
     <row r="238" spans="1:2" ht="80.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="57"/>
-      <c r="B238" s="74"/>
+      <c r="A238" s="59"/>
+      <c r="B238" s="88"/>
     </row>
     <row r="239" spans="1:2" ht="213" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A239" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>428</v>
+        <v>372</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" s="50" t="s">
+      <c r="A240" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A241" s="51"/>
+      <c r="A241" s="53"/>
       <c r="B241" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A242" s="51"/>
+      <c r="A242" s="53"/>
       <c r="B242" s="11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A243" s="51"/>
+      <c r="A243" s="53"/>
       <c r="B243" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A244" s="52"/>
+      <c r="A244" s="54"/>
       <c r="B244" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" s="50" t="s">
+      <c r="A245" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B245" s="55" t="s">
-        <v>90</v>
+      <c r="B245" s="57" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="27.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="52"/>
-      <c r="B246" s="56"/>
+      <c r="A246" s="54"/>
+      <c r="B246" s="58"/>
     </row>
     <row r="247" spans="1:2" ht="188" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A247" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -9758,7 +9767,7 @@
       </c>
     </row>
     <row r="315" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A315" s="50" t="s">
+      <c r="A315" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B315" s="6" t="s">
@@ -9766,31 +9775,31 @@
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A316" s="51"/>
+      <c r="A316" s="53"/>
       <c r="B316" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A317" s="51"/>
+      <c r="A317" s="53"/>
       <c r="B317" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A318" s="51"/>
+      <c r="A318" s="53"/>
       <c r="B318" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A319" s="52"/>
+      <c r="A319" s="54"/>
       <c r="B319" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A320" s="50" t="s">
+      <c r="A320" s="52" t="s">
         <v>11</v>
       </c>
       <c r="B320" s="6" t="s">
@@ -9798,23 +9807,23 @@
       </c>
     </row>
     <row r="321" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A321" s="51"/>
+      <c r="A321" s="53"/>
       <c r="B321" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="50" x14ac:dyDescent="0.35">
-      <c r="A322" s="51"/>
+      <c r="A322" s="53"/>
       <c r="B322" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A323" s="52"/>
+      <c r="A323" s="54"/>
       <c r="B323" s="4"/>
     </row>
     <row r="324" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A324" s="50" t="s">
+      <c r="A324" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B324" s="6" t="s">
@@ -9822,37 +9831,37 @@
       </c>
     </row>
     <row r="325" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A325" s="51"/>
+      <c r="A325" s="53"/>
       <c r="B325" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A326" s="51"/>
+      <c r="A326" s="53"/>
       <c r="B326" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A327" s="51"/>
+      <c r="A327" s="53"/>
       <c r="B327" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A328" s="51"/>
+      <c r="A328" s="53"/>
       <c r="B328" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A329" s="52"/>
+      <c r="A329" s="54"/>
       <c r="B329" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A330" s="50" t="s">
+      <c r="A330" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B330" s="6" t="s">
@@ -9860,57 +9869,57 @@
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A331" s="51"/>
+      <c r="A331" s="53"/>
       <c r="B331" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A332" s="51"/>
+      <c r="A332" s="53"/>
       <c r="B332" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A333" s="51"/>
+      <c r="A333" s="53"/>
       <c r="B333" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A334" s="51"/>
+      <c r="A334" s="53"/>
       <c r="B334" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A335" s="51"/>
+      <c r="A335" s="53"/>
       <c r="B335" s="6"/>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A336" s="51"/>
+      <c r="A336" s="53"/>
       <c r="B336" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A337" s="51"/>
+      <c r="A337" s="53"/>
       <c r="B337" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A338" s="51"/>
+      <c r="A338" s="53"/>
       <c r="B338" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A339" s="51"/>
+      <c r="A339" s="53"/>
       <c r="B339" s="6"/>
     </row>
     <row r="340" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A340" s="52"/>
+      <c r="A340" s="54"/>
       <c r="B340" s="4" t="s">
         <v>31</v>
       </c>
@@ -9925,6 +9934,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A320:A323"/>
+    <mergeCell ref="A324:A329"/>
+    <mergeCell ref="A330:A340"/>
+    <mergeCell ref="A240:A244"/>
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="B230:B238"/>
+    <mergeCell ref="A315:A319"/>
+    <mergeCell ref="A159:A166"/>
+    <mergeCell ref="A194:A198"/>
+    <mergeCell ref="A200:A204"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="A230:A238"/>
     <mergeCell ref="B150:B158"/>
     <mergeCell ref="B14:B22"/>
     <mergeCell ref="B30:B46"/>
@@ -9939,20 +9962,6 @@
     <mergeCell ref="A91:A102"/>
     <mergeCell ref="A103:A115"/>
     <mergeCell ref="A150:A158"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="B230:B238"/>
-    <mergeCell ref="A315:A319"/>
-    <mergeCell ref="A159:A166"/>
-    <mergeCell ref="A194:A198"/>
-    <mergeCell ref="A200:A204"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="A230:A238"/>
-    <mergeCell ref="A320:A323"/>
-    <mergeCell ref="A324:A329"/>
-    <mergeCell ref="A330:A340"/>
-    <mergeCell ref="A240:A244"/>
-    <mergeCell ref="A245:A246"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9971,15 +9980,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010050B7A9603DF1A244B8132CE1C1B398A8" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a440459976170ea38fb7eb2e040ba179">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa" xmlns:ns3="6eb2050a-b6f7-4b0c-983c-e4078fb34326" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba382d81cd35db01624f0cbef7b1ab06" ns2:_="" ns3:_="">
     <xsd:import namespace="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
@@ -10214,32 +10214,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C4CDC2B-2508-4500-A767-6608CE6CCC66}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6eb2050a-b6f7-4b0c-983c-e4078fb34326"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6eb2050a-b6f7-4b0c-983c-e4078fb34326"/>
-    <ds:schemaRef ds:uri="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6195609-6637-43D9-8DEA-11DA231B1FBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6967CD9A-A215-41D4-ADA1-CB48D8D00AD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10256,4 +10257,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6195609-6637-43D9-8DEA-11DA231B1FBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>